--- a/excel/VBA-training.xlsx
+++ b/excel/VBA-training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/come.vitis/Documents/Personnal/Projects/Learning/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA89267-5457-5142-87D5-A84F03FFA749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00782997-D78D-364B-895F-32E2BA632A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{90AE837F-053C-3D49-A5B7-334EBF598064}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,13 +113,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,8 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +481,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,16 +501,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -516,16 +543,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -558,16 +585,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -614,16 +641,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
